--- a/configurations/swtbahn-ultraloop/interlocking_table.xlsx
+++ b/configurations/swtbahn-ultraloop/interlocking_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eugeneyip/Documents/SWTbahn/Software/swtbahn-cli/configurations/swtbahn-ultraloop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFD85C7-0B80-3C4D-B02C-500FDC5C89F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05B8090-86FF-FA4C-B903-A56488608EDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6280" yWindow="-23900" windowWidth="23340" windowHeight="15000" xr2:uid="{F448522D-F72F-1E4C-8C66-E38C0A38E452}"/>
+    <workbookView xWindow="8860" yWindow="-16120" windowWidth="23340" windowHeight="15000" xr2:uid="{F448522D-F72F-1E4C-8C66-E38C0A38E452}"/>
   </bookViews>
   <sheets>
     <sheet name="SWTbahn Ultraloop" sheetId="1" r:id="rId1"/>
@@ -25,20 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
   <si>
     <t>Route ID</t>
   </si>
   <si>
-    <t>Source (Signal)</t>
-  </si>
-  <si>
-    <t>Destination (Signal)</t>
-  </si>
-  <si>
-    <t>Path (Track Segments)</t>
-  </si>
-  <si>
     <t>Signals</t>
   </si>
   <si>
@@ -136,6 +127,27 @@
   </si>
   <si>
     <t>seg30, seg31, seg28</t>
+  </si>
+  <si>
+    <t>Source
+(Signal)</t>
+  </si>
+  <si>
+    <t>Destination
+(Signal)</t>
+  </si>
+  <si>
+    <t>Path
+(Track Segments)</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>Anti-clockwise</t>
+  </si>
+  <si>
+    <t>Clockwise</t>
   </si>
 </sst>
 </file>
@@ -176,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -185,11 +197,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="UB Scala Sans"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -360,16 +393,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5147B510-4F2C-714A-B4A8-F0E0F48DCFEC}" name="Table1" displayName="Table1" ref="A1:G11" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G11" xr:uid="{0240CCA7-C832-DC40-8231-40360DC74429}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F1AACF37-8759-A245-9777-B1E6562F954A}" name="Route ID" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{79B53DA8-2BF3-EA42-96AA-94E60679B223}" name="Source (Signal)" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{4583CBAB-36FF-D447-A492-A6279F010D5C}" name="Destination (Signal)" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{39016BEE-F452-AF40-B1BC-B05029AF580B}" name="Path (Track Segments)" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{D63AC279-3D17-5D43-9663-298EA99FE755}" name="Points (Positions)" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{03487F6E-A4F4-9642-8593-1B18ABC35665}" name="Signals" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{4673E144-44E4-1040-8853-B368A5613AB5}" name="Conflicts (Route IDs)" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5147B510-4F2C-714A-B4A8-F0E0F48DCFEC}" name="Table1" displayName="Table1" ref="A1:H11" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H11" xr:uid="{0240CCA7-C832-DC40-8231-40360DC74429}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{F1AACF37-8759-A245-9777-B1E6562F954A}" name="Route ID" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{79B53DA8-2BF3-EA42-96AA-94E60679B223}" name="Source_x000a_(Signal)" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{4583CBAB-36FF-D447-A492-A6279F010D5C}" name="Destination_x000a_(Signal)" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{919EF607-AF37-AE41-B93D-E51236682AA2}" name="Direction" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{39016BEE-F452-AF40-B1BC-B05029AF580B}" name="Path_x000a_(Track Segments)" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{D63AC279-3D17-5D43-9663-298EA99FE755}" name="Points (Positions)" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{03487F6E-A4F4-9642-8593-1B18ABC35665}" name="Signals" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{4673E144-44E4-1040-8853-B368A5613AB5}" name="Conflicts (Route IDs)" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -675,254 +709,288 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="2" customWidth="1"/>
+    <col min="5" max="5" width="48" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="48" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>36</v>
+      <c r="D11" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="48" x14ac:dyDescent="0.3">
-      <c r="G13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="48" x14ac:dyDescent="0.3">
+      <c r="H13" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/configurations/swtbahn-ultraloop/interlocking_table.xlsx
+++ b/configurations/swtbahn-ultraloop/interlocking_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eugeneyip/Documents/SWTbahn/Software/swtbahn-cli/configurations/swtbahn-ultraloop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05B8090-86FF-FA4C-B903-A56488608EDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E33376F-83BB-5042-81BE-9F89A87F2AF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8860" yWindow="-16120" windowWidth="23340" windowHeight="15000" xr2:uid="{F448522D-F72F-1E4C-8C66-E38C0A38E452}"/>
   </bookViews>
@@ -205,24 +205,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="UB Scala Sans"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -361,6 +343,24 @@
         <name val="UB Scala Sans"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="UB Scala Sans"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -399,11 +399,11 @@
     <tableColumn id="1" xr3:uid="{F1AACF37-8759-A245-9777-B1E6562F954A}" name="Route ID" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{79B53DA8-2BF3-EA42-96AA-94E60679B223}" name="Source_x000a_(Signal)" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{4583CBAB-36FF-D447-A492-A6279F010D5C}" name="Destination_x000a_(Signal)" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{919EF607-AF37-AE41-B93D-E51236682AA2}" name="Direction" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{39016BEE-F452-AF40-B1BC-B05029AF580B}" name="Path_x000a_(Track Segments)" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{D63AC279-3D17-5D43-9663-298EA99FE755}" name="Points (Positions)" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{03487F6E-A4F4-9642-8593-1B18ABC35665}" name="Signals" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{4673E144-44E4-1040-8853-B368A5613AB5}" name="Conflicts (Route IDs)" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{919EF607-AF37-AE41-B93D-E51236682AA2}" name="Direction" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{39016BEE-F452-AF40-B1BC-B05029AF580B}" name="Path_x000a_(Track Segments)" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{D63AC279-3D17-5D43-9663-298EA99FE755}" name="Points (Positions)" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{03487F6E-A4F4-9642-8593-1B18ABC35665}" name="Signals" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{4673E144-44E4-1040-8853-B368A5613AB5}" name="Conflicts (Route IDs)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
